--- a/物品/MyData.xlsx
+++ b/物品/MyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27690" windowHeight="13920"/>
+    <workbookView windowWidth="30255" windowHeight="12765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,8 +268,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -293,14 +293,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -323,30 +346,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -363,21 +393,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -392,17 +415,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,20 +436,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -452,61 +452,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,115 +626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,17 +661,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -687,15 +676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -707,6 +687,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,133 +778,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1245,8 +1245,8 @@
   <sheetPr/>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N32" s="4">
         <v>9999</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N33" s="4">
         <v>9999</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N34" s="4">
         <v>9999</v>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N35" s="4">
         <v>9999</v>

--- a/物品/MyData.xlsx
+++ b/物品/MyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30255" windowHeight="12765"/>
+    <workbookView windowWidth="24825" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="83">
   <si>
     <t>物品ID</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>50元礼包</t>
+  </si>
+  <si>
+    <t>强化石</t>
   </si>
   <si>
     <t>新手炮</t>
@@ -267,9 +270,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -293,9 +296,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,35 +319,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -345,31 +326,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,22 +343,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -407,9 +350,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,6 +392,53 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -452,43 +455,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,133 +599,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,6 +679,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -687,50 +699,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +726,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1243,10 +1246,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1779,17 +1782,15 @@
     </row>
     <row r="12" ht="16.5" spans="1:15">
       <c r="A12" s="4">
-        <v>6001</v>
+        <v>5004</v>
       </c>
       <c r="B12" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1797,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>17</v>
@@ -1818,7 +1819,7 @@
         <v>17</v>
       </c>
       <c r="N12" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O12" s="4">
         <v>-1</v>
@@ -1826,16 +1827,16 @@
     </row>
     <row r="13" ht="16.5" spans="1:15">
       <c r="A13" s="4">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B13" s="4">
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>17</v>
@@ -1873,16 +1874,16 @@
     </row>
     <row r="14" ht="16.5" spans="1:15">
       <c r="A14" s="4">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="B14" s="4">
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>17</v>
@@ -1920,16 +1921,16 @@
     </row>
     <row r="15" ht="16.5" spans="1:15">
       <c r="A15" s="4">
-        <v>6004</v>
+        <v>6003</v>
       </c>
       <c r="B15" s="4">
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>17</v>
@@ -1967,16 +1968,16 @@
     </row>
     <row r="16" ht="16.5" spans="1:15">
       <c r="A16" s="4">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="B16" s="4">
         <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>17</v>
@@ -2014,16 +2015,16 @@
     </row>
     <row r="17" ht="16.5" spans="1:15">
       <c r="A17" s="4">
-        <v>6006</v>
+        <v>6005</v>
       </c>
       <c r="B17" s="4">
         <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>17</v>
@@ -2061,16 +2062,16 @@
     </row>
     <row r="18" ht="16.5" spans="1:15">
       <c r="A18" s="4">
-        <v>7001</v>
+        <v>6006</v>
       </c>
       <c r="B18" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>17</v>
@@ -2108,16 +2109,16 @@
     </row>
     <row r="19" ht="16.5" spans="1:15">
       <c r="A19" s="4">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="B19" s="4">
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>17</v>
@@ -2155,16 +2156,16 @@
     </row>
     <row r="20" ht="16.5" spans="1:15">
       <c r="A20" s="4">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="B20" s="4">
         <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>17</v>
@@ -2202,16 +2203,16 @@
     </row>
     <row r="21" ht="16.5" spans="1:15">
       <c r="A21" s="4">
-        <v>7004</v>
+        <v>7003</v>
       </c>
       <c r="B21" s="4">
         <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>17</v>
@@ -2249,16 +2250,16 @@
     </row>
     <row r="22" ht="16.5" spans="1:15">
       <c r="A22" s="4">
-        <v>7005</v>
+        <v>7004</v>
       </c>
       <c r="B22" s="4">
         <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>17</v>
@@ -2296,16 +2297,16 @@
     </row>
     <row r="23" ht="16.5" spans="1:15">
       <c r="A23" s="4">
-        <v>7006</v>
+        <v>7005</v>
       </c>
       <c r="B23" s="4">
         <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>17</v>
@@ -2343,16 +2344,16 @@
     </row>
     <row r="24" ht="16.5" spans="1:15">
       <c r="A24" s="4">
-        <v>8001</v>
+        <v>7006</v>
       </c>
       <c r="B24" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>17</v>
@@ -2385,21 +2386,21 @@
         <v>1</v>
       </c>
       <c r="O24" s="4">
-        <v>86400</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:15">
       <c r="A25" s="4">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="B25" s="4">
         <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>17</v>
@@ -2437,25 +2438,25 @@
     </row>
     <row r="26" ht="16.5" spans="1:15">
       <c r="A26" s="4">
-        <v>9001</v>
+        <v>8002</v>
       </c>
       <c r="B26" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" s="4">
-        <v>20001</v>
+        <v>0</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>17</v>
@@ -2476,24 +2477,24 @@
         <v>17</v>
       </c>
       <c r="N26" s="4">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="O26" s="4">
-        <v>-1</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:15">
       <c r="A27" s="4">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="B27" s="4">
         <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>18</v>
@@ -2531,16 +2532,16 @@
     </row>
     <row r="28" ht="16.5" spans="1:15">
       <c r="A28" s="4">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="B28" s="4">
         <v>9</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>18</v>
@@ -2578,16 +2579,16 @@
     </row>
     <row r="29" ht="16.5" spans="1:15">
       <c r="A29" s="4">
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="B29" s="4">
         <v>9</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>18</v>
@@ -2625,22 +2626,22 @@
     </row>
     <row r="30" ht="16.5" spans="1:15">
       <c r="A30" s="4">
-        <v>10001</v>
+        <v>9004</v>
       </c>
       <c r="B30" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F30" s="4">
-        <v>0</v>
+        <v>20001</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>17</v>
@@ -2655,7 +2656,7 @@
         <v>17</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L30" s="4">
         <v>0</v>
@@ -2664,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="N30" s="4">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="O30" s="4">
         <v>-1</v>
@@ -2672,22 +2673,22 @@
     </row>
     <row r="31" ht="16.5" spans="1:15">
       <c r="A31" s="4">
-        <v>11001</v>
+        <v>10001</v>
       </c>
       <c r="B31" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="E31" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" s="4">
-        <v>11001</v>
+        <v>0</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>17</v>
@@ -2702,7 +2703,7 @@
         <v>17</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L31" s="4">
         <v>0</v>
@@ -2711,7 +2712,7 @@
         <v>17</v>
       </c>
       <c r="N31" s="4">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="O31" s="4">
         <v>-1</v>
@@ -2719,22 +2720,22 @@
     </row>
     <row r="32" ht="16.5" spans="1:15">
       <c r="A32" s="4">
-        <v>12001</v>
+        <v>11001</v>
       </c>
       <c r="B32" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="E32" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F32" s="4">
-        <v>0</v>
+        <v>11001</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>17</v>
@@ -2755,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N32" s="4">
         <v>9999</v>
@@ -2766,16 +2767,16 @@
     </row>
     <row r="33" ht="16.5" spans="1:15">
       <c r="A33" s="4">
-        <v>12002</v>
+        <v>12001</v>
       </c>
       <c r="B33" s="4">
         <v>12</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>17</v>
@@ -2813,16 +2814,16 @@
     </row>
     <row r="34" ht="16.5" spans="1:15">
       <c r="A34" s="4">
-        <v>12003</v>
+        <v>12002</v>
       </c>
       <c r="B34" s="4">
         <v>12</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>17</v>
@@ -2860,16 +2861,16 @@
     </row>
     <row r="35" ht="16.5" spans="1:15">
       <c r="A35" s="4">
-        <v>12004</v>
+        <v>12003</v>
       </c>
       <c r="B35" s="4">
         <v>12</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>17</v>
@@ -2902,6 +2903,53 @@
         <v>9999</v>
       </c>
       <c r="O35" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="1:15">
+      <c r="A36" s="4">
+        <v>12004</v>
+      </c>
+      <c r="B36" s="4">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="4">
+        <v>9999</v>
+      </c>
+      <c r="O36" s="4">
         <v>-1</v>
       </c>
     </row>
